--- a/biology/Botanique/Chamélire_jaunissant/Chamélire_jaunissant.xlsx
+++ b/biology/Botanique/Chamélire_jaunissant/Chamélire_jaunissant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cham%C3%A9lire_jaunissant</t>
+          <t>Chamélire_jaunissant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chamaelirium luteum est une espèce de plantes vivaces de la famille des Liliaceae selon la classification classique ou de celle des Melanthiaceae selon la classification phylogénétique. Elle est appelée également « fausse licorne », « plante étoilée » ou « alétris »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaelirium luteum est une espèce de plantes vivaces de la famille des Liliaceae selon la classification classique ou de celle des Melanthiaceae selon la classification phylogénétique. Elle est appelée également « fausse licorne », « plante étoilée » ou « alétris ».
 C'est la seule espèce actuellement acceptée du genre Chamaelirium.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cham%C3%A9lire_jaunissant</t>
+          <t>Chamélire_jaunissant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante a une base composée d’environ six feuilles de 8 à 15 cm de long d’où part une unique inflorescence pouvant atteindre 8 à 30 cm. Les fleurs sont de couleur blanche.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cham%C3%A9lire_jaunissant</t>
+          <t>Chamélire_jaunissant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est présente à l’état naturel dans une grande partie de l’est des États-Unis et du Canada[2]. Elle apprécie les zones humides mais bien drainées comme dans les sous-bois[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est présente à l’état naturel dans une grande partie de l’est des États-Unis et du Canada. Elle apprécie les zones humides mais bien drainées comme dans les sous-bois.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cham%C3%A9lire_jaunissant</t>
+          <t>Chamélire_jaunissant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Amérindiens employaient ses racines écrasées pour guérir les problèmes de menstruations importantes, de fertilité chez l’homme et la femme. Les homéopathes utilisent encore la plante pour traiter ce type de problème[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amérindiens employaient ses racines écrasées pour guérir les problèmes de menstruations importantes, de fertilité chez l’homme et la femme. Les homéopathes utilisent encore la plante pour traiter ce type de problème.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cham%C3%A9lire_jaunissant</t>
+          <t>Chamélire_jaunissant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Veratrum luteum L.
 Helonias dioica (Walter) Pursh
